--- a/data/trans_dic/IP16A01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A01-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -661,17 +661,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>55,73%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>64,43%</t>
+          <t>72,16%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>57,27%</t>
+          <t>86,12%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,17 +681,17 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>60,56%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>58,04%</t>
+          <t>56,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>56,64%</t>
+          <t>36,66%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,17 +701,17 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>58,16%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>61,17%</t>
+          <t>62,19%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>57,02%</t>
+          <t>56,52%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>96,96; 100</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>41,81; 68,44</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>51,61; 75,74</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>45,71; 67,28</t>
+          <t>42,71; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,18; 100</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>47,41; 72,53</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>46,12; 70,01</t>
+          <t>13,92; 90,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>42,35; 69,47</t>
+          <t>11,08; 70,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>98,52; 100</t>
+          <t>90,01; 100</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>48,06; 66,62</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>52,87; 69,41</t>
+          <t>30,41; 88,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>48,07; 65,71</t>
+          <t>31,48; 78,88</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -941,17 +941,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>61,95%</t>
+          <t>55,73%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>57,21%</t>
+          <t>64,43%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>60,57%</t>
+          <t>57,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -961,17 +961,17 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>70,69%</t>
+          <t>60,56%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>58,39%</t>
+          <t>58,04%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>68,1%</t>
+          <t>56,64%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -981,17 +981,17 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>66,05%</t>
+          <t>58,16%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>57,82%</t>
+          <t>61,17%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>64,24%</t>
+          <t>57,02%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>96,64; 100</t>
+          <t>96,96; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>48,98; 72,79</t>
+          <t>41,81; 68,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>40,22; 70,98</t>
+          <t>51,61; 75,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>46,03; 74,3</t>
+          <t>45,71; 67,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>94,55; 100</t>
+          <t>97,18; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>57,93; 81,32</t>
+          <t>47,41; 72,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>42,81; 71,87</t>
+          <t>46,12; 70,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>52,87; 80,42</t>
+          <t>42,35; 69,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>97,89; 100</t>
+          <t>98,52; 100</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>57,62; 74,55</t>
+          <t>48,06; 66,62</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>47,57; 68,22</t>
+          <t>52,87; 69,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>53,09; 73,36</t>
+          <t>48,07; 65,71</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1081,17 +1081,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>70,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>72,16%</t>
+          <t>49,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>86,12%</t>
+          <t>55,38%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,17 +1101,17 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>63,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>56,8%</t>
+          <t>72,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>36,66%</t>
+          <t>44,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,17 +1121,17 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>67,18%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>62,19%</t>
+          <t>60,54%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>56,52%</t>
+          <t>49,48%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>73,58; 100</t>
+          <t>96,52; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>55,9; 80,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>32,77; 63,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>42,71; 100,0</t>
+          <t>41,74; 67,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>85,49; 100</t>
+          <t>95,56; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>76,75; 100</t>
+          <t>50,54; 76,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,92; 90,54</t>
+          <t>58,05; 83,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,08; 70,32</t>
+          <t>29,01; 67,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,01; 100</t>
+          <t>98,02; 100</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>82,92; 100</t>
+          <t>58,51; 75,51</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,41; 88,42</t>
+          <t>50,25; 70,96</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,48; 78,88</t>
+          <t>39,9; 62,36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1221,17 +1221,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>70,12%</t>
+          <t>61,95%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>49,06%</t>
+          <t>57,21%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>55,38%</t>
+          <t>60,57%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1241,17 +1241,17 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>63,93%</t>
+          <t>70,69%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>72,09%</t>
+          <t>58,39%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>44,03%</t>
+          <t>68,1%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1261,17 +1261,17 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>67,18%</t>
+          <t>66,05%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>60,54%</t>
+          <t>57,82%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>49,48%</t>
+          <t>64,24%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>96,52; 100</t>
+          <t>96,64; 100</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>55,9; 80,74</t>
+          <t>48,98; 72,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32,77; 63,4</t>
+          <t>40,22; 70,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>41,74; 67,06</t>
+          <t>46,03; 74,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>95,56; 100</t>
+          <t>94,55; 100</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>50,54; 76,06</t>
+          <t>57,93; 81,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>58,05; 83,33</t>
+          <t>42,81; 71,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29,01; 67,48</t>
+          <t>52,87; 80,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>98,02; 100</t>
+          <t>97,89; 100</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>58,51; 75,51</t>
+          <t>57,62; 74,55</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>50,25; 70,96</t>
+          <t>47,57; 68,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>39,9; 62,36</t>
+          <t>53,09; 73,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A01-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,92; 90,54</t>
+          <t>16,33; 90,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30,41; 88,42</t>
+          <t>28,1; 89,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -869,17 +869,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,54; 72,81</t>
+          <t>44,62; 73,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,07; 57,39</t>
+          <t>20,85; 57,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>44,9; 82,62</t>
+          <t>48,2; 84,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,27; 82,58</t>
+          <t>50,94; 81,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,46; 78,16</t>
+          <t>41,03; 77,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>56,02; 88,11</t>
+          <t>54,83; 87,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>52,32; 73,37</t>
+          <t>51,11; 73,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34,44; 62,34</t>
+          <t>34,66; 61,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>56,59; 81,82</t>
+          <t>57,19; 81,31</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>41,81; 68,44</t>
+          <t>41,78; 68,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,61; 75,74</t>
+          <t>51,7; 75,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>45,71; 67,28</t>
+          <t>45,92; 67,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>47,41; 72,53</t>
+          <t>47,67; 71,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>46,12; 70,01</t>
+          <t>45,41; 69,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>42,35; 69,47</t>
+          <t>42,78; 71,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>48,06; 66,62</t>
+          <t>49,62; 67,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>52,87; 69,41</t>
+          <t>52,69; 70,34</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>48,07; 65,71</t>
+          <t>47,98; 65,27</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1149,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>55,9; 80,74</t>
+          <t>56,8; 80,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,77; 63,4</t>
+          <t>33,31; 63,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>41,74; 67,06</t>
+          <t>41,1; 68,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,54; 76,06</t>
+          <t>50,62; 76,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>58,05; 83,33</t>
+          <t>57,43; 84,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,01; 67,48</t>
+          <t>29,24; 65,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>58,51; 75,51</t>
+          <t>57,6; 74,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>50,25; 70,96</t>
+          <t>50,02; 71,02</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>39,9; 62,36</t>
+          <t>40,16; 61,76</t>
         </is>
       </c>
     </row>
@@ -1289,17 +1289,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>48,98; 72,79</t>
+          <t>50,2; 73,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>40,22; 70,98</t>
+          <t>43,31; 73,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>46,03; 74,3</t>
+          <t>46,06; 75,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,17 +1309,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>57,93; 81,32</t>
+          <t>57,71; 81,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>42,81; 71,87</t>
+          <t>44,0; 74,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>52,87; 80,42</t>
+          <t>54,26; 80,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>57,62; 74,55</t>
+          <t>56,96; 73,91</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>47,57; 68,22</t>
+          <t>47,6; 68,45</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>53,09; 73,36</t>
+          <t>53,12; 73,65</t>
         </is>
       </c>
     </row>
@@ -1429,17 +1429,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>55,88; 68,32</t>
+          <t>56,09; 68,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>47,55; 62,83</t>
+          <t>47,88; 62,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>53,07; 66,8</t>
+          <t>51,74; 65,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>60,7; 73,37</t>
+          <t>60,48; 72,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>53,45; 68,0</t>
+          <t>54,43; 68,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>48,62; 64,45</t>
+          <t>48,77; 65,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,17 +1469,24 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>60,41; 69,13</t>
+          <t>59,55; 68,8</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>53,08; 63,13</t>
+          <t>53,02; 63,71</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>52,42; 62,78</t>
+          <t>52,5; 63,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A01-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -734,12 +734,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>14,8; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>42,71; 100,0</t>
+          <t>39,95; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,33; 90,95</t>
+          <t>14,57; 90,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,08; 70,32</t>
+          <t>10,52; 68,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,19 +774,19 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,1; 89,45</t>
+          <t>27,07; 88,99</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>31,48; 78,88</t>
+          <t>32,47; 80,3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -869,17 +869,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,62; 73,58</t>
+          <t>44,48; 72,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,85; 57,61</t>
+          <t>21,43; 58,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,2; 84,59</t>
+          <t>42,81; 82,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,94; 81,32</t>
+          <t>51,01; 81,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>41,03; 77,75</t>
+          <t>40,9; 78,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>54,83; 87,23</t>
+          <t>57,28; 88,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,24 +909,24 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51,11; 73,75</t>
+          <t>52,63; 74,16</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34,66; 61,59</t>
+          <t>35,68; 63,7</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>57,19; 81,31</t>
+          <t>58,22; 80,95</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1009,17 +1009,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>41,78; 68,73</t>
+          <t>42,59; 68,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,7; 75,89</t>
+          <t>50,88; 76,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>45,92; 67,62</t>
+          <t>45,22; 67,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>47,67; 71,63</t>
+          <t>48,16; 71,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>45,41; 69,4</t>
+          <t>46,26; 69,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>42,78; 71,16</t>
+          <t>42,18; 69,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,24 +1049,24 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>49,62; 67,1</t>
+          <t>49,2; 67,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>52,69; 70,34</t>
+          <t>52,11; 69,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>47,98; 65,27</t>
+          <t>48,37; 66,24</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1149,17 +1149,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>56,8; 80,2</t>
+          <t>57,99; 81,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,31; 63,63</t>
+          <t>35,5; 64,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>41,1; 68,37</t>
+          <t>40,39; 69,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,62; 76,42</t>
+          <t>49,37; 75,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>57,43; 84,67</t>
+          <t>56,84; 83,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,24; 65,89</t>
+          <t>29,65; 68,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>57,6; 74,72</t>
+          <t>59,18; 75,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>50,02; 71,02</t>
+          <t>50,41; 71,14</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>40,16; 61,76</t>
+          <t>38,65; 62,0</t>
         </is>
       </c>
     </row>
@@ -1289,17 +1289,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,2; 73,89</t>
+          <t>48,71; 72,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,31; 73,23</t>
+          <t>42,69; 71,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>46,06; 75,16</t>
+          <t>45,0; 74,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,17 +1309,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>57,71; 81,86</t>
+          <t>57,88; 81,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>44,0; 74,3</t>
+          <t>42,93; 71,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>54,26; 80,63</t>
+          <t>53,62; 79,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>56,96; 73,91</t>
+          <t>58,09; 74,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>47,6; 68,45</t>
+          <t>46,7; 67,11</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>53,12; 73,65</t>
+          <t>54,57; 74,19</t>
         </is>
       </c>
     </row>
@@ -1429,17 +1429,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>56,09; 68,63</t>
+          <t>56,06; 68,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>47,88; 62,49</t>
+          <t>47,47; 62,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>51,74; 65,6</t>
+          <t>52,02; 65,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>60,48; 72,96</t>
+          <t>60,79; 74,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>54,43; 68,25</t>
+          <t>54,04; 68,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>48,77; 65,2</t>
+          <t>47,48; 64,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>59,55; 68,8</t>
+          <t>60,26; 68,64</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>53,02; 63,71</t>
+          <t>53,17; 63,29</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>52,5; 63,05</t>
+          <t>51,97; 62,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A01-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -661,17 +661,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>74,69%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>72,16%</t>
+          <t>59,02%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>86,12%</t>
+          <t>65,6%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,17 +681,17 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>62,61%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>56,8%</t>
+          <t>43,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>36,66%</t>
+          <t>69,57%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,17 +701,17 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>68,37%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>62,19%</t>
+          <t>51,42%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>56,52%</t>
+          <t>67,65%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>73,58; 100</t>
+          <t>96,02; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>59,66; 85,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,8; 100,0</t>
+          <t>39,65; 74,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>39,95; 100,0</t>
+          <t>50,34; 79,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>85,49; 100</t>
+          <t>95,66; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>76,75; 100</t>
+          <t>47,9; 75,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,57; 90,55</t>
+          <t>25,65; 60,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,52; 68,68</t>
+          <t>48,38; 82,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>90,01; 100</t>
+          <t>97,89; 100</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>82,92; 100</t>
+          <t>57,93; 77,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>27,07; 88,99</t>
+          <t>39,69; 63,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>32,47; 80,3</t>
+          <t>55,93; 78,26</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -801,17 +801,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>59,49%</t>
+          <t>60,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>38,94%</t>
+          <t>58,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>66,94%</t>
+          <t>51,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>68,43%</t>
+          <t>55,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>59,83%</t>
+          <t>64,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>74,61%</t>
+          <t>56,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -841,17 +841,17 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>63,44%</t>
+          <t>58,16%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>48,63%</t>
+          <t>61,17%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>70,56%</t>
+          <t>54,59%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>94,97; 100</t>
+          <t>97,18; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,48; 72,56</t>
+          <t>47,41; 72,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,43; 58,53</t>
+          <t>46,12; 70,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>42,81; 82,41</t>
+          <t>32,99; 66,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>94,7; 100</t>
+          <t>96,96; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,01; 81,65</t>
+          <t>41,81; 68,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,9; 78,06</t>
+          <t>51,61; 75,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>57,28; 88,23</t>
+          <t>45,28; 66,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>97,38; 100</t>
+          <t>98,52; 100</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>52,63; 74,16</t>
+          <t>48,06; 66,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>35,68; 63,7</t>
+          <t>52,87; 69,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>58,22; 80,95</t>
+          <t>43,2; 63,37</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -941,17 +941,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>55,73%</t>
+          <t>63,93%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>64,43%</t>
+          <t>72,09%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>57,27%</t>
+          <t>56,45%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -961,17 +961,17 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>60,56%</t>
+          <t>70,12%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>58,04%</t>
+          <t>49,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>56,64%</t>
+          <t>55,26%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -981,17 +981,17 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>58,16%</t>
+          <t>67,18%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>61,17%</t>
+          <t>60,54%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>57,02%</t>
+          <t>55,94%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>96,96; 100</t>
+          <t>95,56; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,59; 68,61</t>
+          <t>50,54; 76,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>50,88; 76,26</t>
+          <t>58,05; 83,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>45,22; 67,76</t>
+          <t>29,08; 83,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>97,18; 100</t>
+          <t>96,52; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,16; 71,87</t>
+          <t>55,9; 80,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>46,26; 69,53</t>
+          <t>32,77; 63,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>42,18; 69,35</t>
+          <t>41,96; 67,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>98,52; 100</t>
+          <t>98,02; 100</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>49,2; 67,48</t>
+          <t>58,51; 75,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>52,11; 69,57</t>
+          <t>50,25; 70,96</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>48,37; 66,24</t>
+          <t>41,42; 74,75</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1081,17 +1081,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>70,12%</t>
+          <t>70,69%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>49,06%</t>
+          <t>58,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>55,38%</t>
+          <t>68,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,17 +1101,17 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>63,93%</t>
+          <t>61,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>72,09%</t>
+          <t>57,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>44,03%</t>
+          <t>60,92%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,17 +1121,17 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>67,18%</t>
+          <t>66,05%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>60,54%</t>
+          <t>57,82%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>49,48%</t>
+          <t>64,37%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>96,52; 100</t>
+          <t>94,55; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>57,99; 81,13</t>
+          <t>57,93; 81,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,5; 64,21</t>
+          <t>42,81; 71,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>40,39; 69,56</t>
+          <t>52,78; 80,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,56; 100</t>
+          <t>96,64; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,37; 75,75</t>
+          <t>48,98; 72,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>56,84; 83,36</t>
+          <t>40,22; 70,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,65; 68,79</t>
+          <t>46,25; 74,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>98,02; 100</t>
+          <t>97,89; 100</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>59,18; 75,23</t>
+          <t>57,62; 74,55</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>50,41; 71,14</t>
+          <t>47,57; 68,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>38,65; 62,0</t>
+          <t>53,22; 73,48</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1221,17 +1221,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>61,95%</t>
+          <t>67,23%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>57,21%</t>
+          <t>61,36%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>60,57%</t>
+          <t>58,53%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1241,17 +1241,17 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>70,69%</t>
+          <t>62,4%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>58,39%</t>
+          <t>55,14%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>68,1%</t>
+          <t>59,03%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1261,17 +1261,17 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>66,05%</t>
+          <t>64,72%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>57,82%</t>
+          <t>58,3%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>64,24%</t>
+          <t>58,79%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>96,64; 100</t>
+          <t>99,0; 100</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>48,71; 72,5</t>
+          <t>60,7; 73,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>42,69; 71,71</t>
+          <t>53,45; 68,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>45,0; 74,12</t>
+          <t>48,7; 76,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>94,55; 100</t>
+          <t>99,11; 100</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>57,88; 81,49</t>
+          <t>55,88; 68,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>42,93; 71,94</t>
+          <t>47,55; 62,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>53,62; 79,89</t>
+          <t>53,0; 66,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>97,89; 100</t>
+          <t>99,53; 100</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>58,09; 74,66</t>
+          <t>60,41; 69,13</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>46,7; 67,11</t>
+          <t>53,08; 63,13</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>54,57; 74,19</t>
+          <t>52,86; 68,42</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>62,4%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>55,14%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>59,21%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>67,23%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>61,36%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>55,64%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>64,72%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>58,3%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>57,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>99,11; 100</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>56,06; 68,84</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>47,47; 62,52</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>52,02; 65,92</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>99,0; 100</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>60,79; 74,06</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>54,04; 68,5</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>47,48; 64,28</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>99,53; 100</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>60,26; 68,64</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>53,17; 63,29</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>51,97; 62,57</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
